--- a/datapackage_pipelines_budgetkey/pipelines/budget/national/processed/budget_conversions.xlsx
+++ b/datapackage_pipelines_budgetkey/pipelines/budget/national/processed/budget_conversions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/Code/obudget/budgetkey-data-pipelines/datapackage_pipelines_budgetkey/pipelines/budget/national/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78ABADA9-41F1-1947-9D4C-FEF0FA1F6A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2BB9DD-C216-8241-9EEF-DB60CFA1046D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6881,10 +6881,10 @@
     <t>[[2014, "00202915"]]</t>
   </si>
   <si>
-    <t>[2025, "07"]</t>
-  </si>
-  <si>
-    <t>[[2024, "07"]]</t>
+    <t>[2025, "0007"]</t>
+  </si>
+  <si>
+    <t>[[2024, "0007"]]</t>
   </si>
 </sst>
 </file>
@@ -7297,7 +7297,7 @@
   <dimension ref="A1:B1145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1094" workbookViewId="0">
-      <selection activeCell="B1145" sqref="B1145"/>
+      <selection activeCell="B1138" sqref="B1138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/datapackage_pipelines_budgetkey/pipelines/budget/national/processed/budget_conversions.xlsx
+++ b/datapackage_pipelines_budgetkey/pipelines/budget/national/processed/budget_conversions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/Code/obudget/budgetkey-data-pipelines/datapackage_pipelines_budgetkey/pipelines/budget/national/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2BB9DD-C216-8241-9EEF-DB60CFA1046D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA15B76D-6525-E343-8F19-0B1F9995CA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2294" uniqueCount="2288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2296" uniqueCount="2290">
   <si>
     <t>Current</t>
   </si>
@@ -6885,6 +6885,12 @@
   </si>
   <si>
     <t>[[2024, "0007"]]</t>
+  </si>
+  <si>
+    <t>[2025, "000750"]</t>
+  </si>
+  <si>
+    <t>[[2024, "000750"]]</t>
   </si>
 </sst>
 </file>
@@ -7294,10 +7300,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Curated"/>
-  <dimension ref="A1:B1145"/>
+  <dimension ref="A1:B1146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1094" workbookViewId="0">
-      <selection activeCell="B1138" sqref="B1138"/>
+    <sheetView tabSelected="1" topLeftCell="A1100" workbookViewId="0">
+      <selection activeCell="B1140" sqref="B1140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16466,6 +16472,14 @@
         <v>2287</v>
       </c>
     </row>
+    <row r="1146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1146" t="s">
+        <v>2288</v>
+      </c>
+      <c r="B1146" t="s">
+        <v>2289</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/datapackage_pipelines_budgetkey/pipelines/budget/national/processed/budget_conversions.xlsx
+++ b/datapackage_pipelines_budgetkey/pipelines/budget/national/processed/budget_conversions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/Code/obudget/budgetkey-data-pipelines/datapackage_pipelines_budgetkey/pipelines/budget/national/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA15B76D-6525-E343-8F19-0B1F9995CA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4715A4C0-4B1A-A343-B42C-AC69CF47D89C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,25 @@
     <sheet name="Items" sheetId="1" r:id="rId1"/>
     <sheet name="Curated" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2296" uniqueCount="2290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2300" uniqueCount="2294">
   <si>
     <t>Current</t>
   </si>
@@ -6891,6 +6904,18 @@
   </si>
   <si>
     <t>[[2024, "000750"]]</t>
+  </si>
+  <si>
+    <t>[2023,"00045212"]</t>
+  </si>
+  <si>
+    <t>[[2022,"00045212"]]</t>
+  </si>
+  <si>
+    <t>[2024,"00062201"]</t>
+  </si>
+  <si>
+    <t>[[2023,"00062201"],[2023,"00062202"]]</t>
   </si>
 </sst>
 </file>
@@ -7300,10 +7325,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Curated"/>
-  <dimension ref="A1:B1146"/>
+  <dimension ref="A1:B1148"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1100" workbookViewId="0">
-      <selection activeCell="B1140" sqref="B1140"/>
+      <selection activeCell="B1144" sqref="B1144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16480,6 +16505,22 @@
         <v>2289</v>
       </c>
     </row>
+    <row r="1147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1147" t="s">
+        <v>2290</v>
+      </c>
+      <c r="B1147" t="s">
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1148" t="s">
+        <v>2292</v>
+      </c>
+      <c r="B1148" t="s">
+        <v>2293</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/datapackage_pipelines_budgetkey/pipelines/budget/national/processed/budget_conversions.xlsx
+++ b/datapackage_pipelines_budgetkey/pipelines/budget/national/processed/budget_conversions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/Code/obudget/budgetkey-data-pipelines/datapackage_pipelines_budgetkey/pipelines/budget/national/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4715A4C0-4B1A-A343-B42C-AC69CF47D89C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9048B229-E4FC-8F43-8ECA-40ED3BC5535F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2300" uniqueCount="2294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2304" uniqueCount="2298">
   <si>
     <t>Current</t>
   </si>
@@ -6912,10 +6912,22 @@
     <t>[[2022,"00045212"]]</t>
   </si>
   <si>
-    <t>[2024,"00062201"]</t>
-  </si>
-  <si>
-    <t>[[2023,"00062201"],[2023,"00062202"]]</t>
+    <t>[2024,"000622"]</t>
+  </si>
+  <si>
+    <t>[[2023,"000622"]]</t>
+  </si>
+  <si>
+    <t>[2023,"00062201"]</t>
+  </si>
+  <si>
+    <t>[[2022,"00062201"],[2022,"00062202"]]</t>
+  </si>
+  <si>
+    <t>[[2022,"000622"]]</t>
+  </si>
+  <si>
+    <t>[2023,"000622"]</t>
   </si>
 </sst>
 </file>
@@ -7325,10 +7337,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Curated"/>
-  <dimension ref="A1:B1148"/>
+  <dimension ref="A1:B1150"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1100" workbookViewId="0">
-      <selection activeCell="B1144" sqref="B1144"/>
+      <selection activeCell="C1128" sqref="C1128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16515,10 +16527,26 @@
     </row>
     <row r="1148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1148" t="s">
+        <v>2294</v>
+      </c>
+      <c r="B1148" t="s">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1149" t="s">
         <v>2292</v>
       </c>
-      <c r="B1148" t="s">
+      <c r="B1149" t="s">
         <v>2293</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1150" t="s">
+        <v>2297</v>
+      </c>
+      <c r="B1150" t="s">
+        <v>2296</v>
       </c>
     </row>
   </sheetData>

--- a/datapackage_pipelines_budgetkey/pipelines/budget/national/processed/budget_conversions.xlsx
+++ b/datapackage_pipelines_budgetkey/pipelines/budget/national/processed/budget_conversions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/Code/obudget/budgetkey-data-pipelines/datapackage_pipelines_budgetkey/pipelines/budget/national/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9048B229-E4FC-8F43-8ECA-40ED3BC5535F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BC66AA-5868-5146-96E1-D358226159CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2304" uniqueCount="2298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2310" uniqueCount="2304">
   <si>
     <t>Current</t>
   </si>
@@ -6928,6 +6928,24 @@
   </si>
   <si>
     <t>[2023,"000622"]</t>
+  </si>
+  <si>
+    <t>[2024,"00062201"]</t>
+  </si>
+  <si>
+    <t>[[2023,"00062201"]]</t>
+  </si>
+  <si>
+    <t>[2024,"0006220107"]</t>
+  </si>
+  <si>
+    <t>[[2023,"0006220107"]]</t>
+  </si>
+  <si>
+    <t>[2024,"0006220132"]</t>
+  </si>
+  <si>
+    <t>[[2023,"0006220132"]]</t>
   </si>
 </sst>
 </file>
@@ -7337,10 +7355,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Curated"/>
-  <dimension ref="A1:B1150"/>
+  <dimension ref="A1:B1153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1100" workbookViewId="0">
-      <selection activeCell="C1128" sqref="C1128"/>
+    <sheetView tabSelected="1" topLeftCell="A1101" workbookViewId="0">
+      <selection activeCell="B1124" sqref="B1124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16549,6 +16567,30 @@
         <v>2296</v>
       </c>
     </row>
+    <row r="1151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1151" t="s">
+        <v>2298</v>
+      </c>
+      <c r="B1151" t="s">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1152" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B1152" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1153" t="s">
+        <v>2302</v>
+      </c>
+      <c r="B1153" t="s">
+        <v>2303</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/datapackage_pipelines_budgetkey/pipelines/budget/national/processed/budget_conversions.xlsx
+++ b/datapackage_pipelines_budgetkey/pipelines/budget/national/processed/budget_conversions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/Code/obudget/budgetkey-data-pipelines/datapackage_pipelines_budgetkey/pipelines/budget/national/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632C8F76-70A8-5248-85DE-1ECD07BEBE53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393418AA-1DF8-CB4D-A1DC-CEBE3D0D750C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2426" uniqueCount="2400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2425" uniqueCount="2401">
   <si>
     <t>Current</t>
   </si>
@@ -7234,6 +7234,9 @@
   </si>
   <si>
     <t>[2022,"00240218"]</t>
+  </si>
+  <si>
+    <t>V</t>
   </si>
 </sst>
 </file>
@@ -7275,10 +7278,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7651,10 +7653,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Curated"/>
-  <dimension ref="A1:C1211"/>
+  <dimension ref="A1:C1210"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1160" workbookViewId="0">
-      <selection activeCell="B1178" sqref="B1178"/>
+      <selection activeCell="B1203" sqref="B1203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17011,7 +17013,7 @@
         <v>2330</v>
       </c>
     </row>
-    <row r="1169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1169" t="s">
         <v>2334</v>
       </c>
@@ -17019,7 +17021,7 @@
         <v>2331</v>
       </c>
     </row>
-    <row r="1170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1170" t="s">
         <v>2336</v>
       </c>
@@ -17027,7 +17029,7 @@
         <v>2335</v>
       </c>
     </row>
-    <row r="1171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1171" t="s">
         <v>2337</v>
       </c>
@@ -17035,7 +17037,7 @@
         <v>2353</v>
       </c>
     </row>
-    <row r="1172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1172" t="s">
         <v>2338</v>
       </c>
@@ -17043,7 +17045,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="1173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1173" t="s">
         <v>2339</v>
       </c>
@@ -17051,307 +17053,302 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="1174" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1174" t="s">
-        <v>2339</v>
+        <v>2340</v>
       </c>
       <c r="B1174" t="s">
         <v>2356</v>
       </c>
-    </row>
-    <row r="1175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1174" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1175" t="s">
-        <v>2340</v>
+        <v>2341</v>
       </c>
       <c r="B1175" t="s">
-        <v>2356</v>
-      </c>
-    </row>
-    <row r="1176" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1176" t="s">
-        <v>2341</v>
+        <v>2342</v>
       </c>
       <c r="B1176" t="s">
-        <v>2357</v>
-      </c>
-    </row>
-    <row r="1177" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1177" t="s">
-        <v>2342</v>
+        <v>2343</v>
       </c>
       <c r="B1177" t="s">
-        <v>2358</v>
-      </c>
-    </row>
-    <row r="1178" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1178" t="s">
-        <v>2343</v>
+        <v>2344</v>
       </c>
       <c r="B1178" t="s">
-        <v>2359</v>
-      </c>
-    </row>
-    <row r="1179" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1179" t="s">
-        <v>2344</v>
+        <v>2345</v>
       </c>
       <c r="B1179" t="s">
-        <v>2360</v>
-      </c>
-    </row>
-    <row r="1180" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1180" t="s">
-        <v>2345</v>
+        <v>2346</v>
       </c>
       <c r="B1180" t="s">
-        <v>2361</v>
-      </c>
-    </row>
-    <row r="1181" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1181" t="s">
-        <v>2346</v>
+        <v>2347</v>
       </c>
       <c r="B1181" t="s">
-        <v>2362</v>
-      </c>
-    </row>
-    <row r="1182" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1182" t="s">
-        <v>2347</v>
+        <v>2348</v>
       </c>
       <c r="B1182" t="s">
-        <v>2363</v>
-      </c>
-    </row>
-    <row r="1183" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1183" t="s">
-        <v>2348</v>
+        <v>2349</v>
       </c>
       <c r="B1183" t="s">
-        <v>2364</v>
-      </c>
-    </row>
-    <row r="1184" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2365</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1184" t="s">
-        <v>2349</v>
+        <v>2350</v>
       </c>
       <c r="B1184" t="s">
-        <v>2365</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="1185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1185" t="s">
-        <v>2350</v>
+        <v>2351</v>
       </c>
       <c r="B1185" t="s">
-        <v>2366</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="1186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1186" t="s">
-        <v>2351</v>
+        <v>2352</v>
       </c>
       <c r="B1186" t="s">
-        <v>2367</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="1187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1187" t="s">
-        <v>2352</v>
+        <v>2318</v>
       </c>
       <c r="B1187" t="s">
-        <v>2368</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="1188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1188" t="s">
-        <v>2318</v>
+        <v>2319</v>
       </c>
       <c r="B1188" t="s">
-        <v>2317</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="1189" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1189" s="2" t="s">
-        <v>2319</v>
-      </c>
-      <c r="B1189" s="2" t="s">
-        <v>2323</v>
+      <c r="A1189" t="s">
+        <v>2320</v>
+      </c>
+      <c r="B1189" t="s">
+        <v>2324</v>
       </c>
     </row>
     <row r="1190" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1190" s="2" t="s">
-        <v>2320</v>
-      </c>
-      <c r="B1190" s="2" t="s">
-        <v>2324</v>
+      <c r="A1190" t="s">
+        <v>2321</v>
+      </c>
+      <c r="B1190" t="s">
+        <v>2325</v>
       </c>
     </row>
     <row r="1191" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1191" s="2" t="s">
-        <v>2321</v>
-      </c>
-      <c r="B1191" s="2" t="s">
-        <v>2325</v>
+      <c r="A1191" t="s">
+        <v>2327</v>
+      </c>
+      <c r="B1191" t="s">
+        <v>2322</v>
       </c>
     </row>
     <row r="1192" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1192" s="2" t="s">
-        <v>2327</v>
-      </c>
-      <c r="B1192" s="2" t="s">
-        <v>2322</v>
+      <c r="A1192" t="s">
+        <v>2328</v>
+      </c>
+      <c r="B1192" t="s">
+        <v>2326</v>
       </c>
     </row>
     <row r="1193" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1193" s="2" t="s">
-        <v>2328</v>
-      </c>
-      <c r="B1193" s="2" t="s">
-        <v>2326</v>
+      <c r="A1193" t="s">
+        <v>2332</v>
+      </c>
+      <c r="B1193" t="s">
+        <v>2329</v>
       </c>
     </row>
     <row r="1194" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1194" s="2" t="s">
-        <v>2332</v>
-      </c>
-      <c r="B1194" s="2" t="s">
-        <v>2329</v>
+      <c r="A1194" t="s">
+        <v>2333</v>
+      </c>
+      <c r="B1194" t="s">
+        <v>2330</v>
       </c>
     </row>
     <row r="1195" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1195" s="2" t="s">
-        <v>2333</v>
-      </c>
-      <c r="B1195" s="2" t="s">
-        <v>2330</v>
+      <c r="A1195" t="s">
+        <v>2334</v>
+      </c>
+      <c r="B1195" t="s">
+        <v>2331</v>
       </c>
     </row>
     <row r="1196" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1196" s="2" t="s">
-        <v>2334</v>
-      </c>
-      <c r="B1196" s="2" t="s">
-        <v>2331</v>
+      <c r="A1196" t="s">
+        <v>2382</v>
+      </c>
+      <c r="B1196" t="s">
+        <v>2369</v>
       </c>
     </row>
     <row r="1197" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1197" s="2" t="s">
-        <v>2382</v>
-      </c>
-      <c r="B1197" s="2" t="s">
-        <v>2369</v>
+      <c r="A1197" t="s">
+        <v>2383</v>
+      </c>
+      <c r="B1197" t="s">
+        <v>2370</v>
       </c>
     </row>
     <row r="1198" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1198" s="2" t="s">
-        <v>2383</v>
-      </c>
-      <c r="B1198" s="2" t="s">
-        <v>2370</v>
+      <c r="A1198" t="s">
+        <v>2384</v>
+      </c>
+      <c r="B1198" t="s">
+        <v>2371</v>
       </c>
     </row>
     <row r="1199" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1199" s="2" t="s">
-        <v>2384</v>
-      </c>
-      <c r="B1199" s="2" t="s">
-        <v>2371</v>
+      <c r="A1199" t="s">
+        <v>2385</v>
+      </c>
+      <c r="B1199" t="s">
+        <v>2372</v>
       </c>
     </row>
     <row r="1200" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1200" s="2" t="s">
-        <v>2385</v>
-      </c>
-      <c r="B1200" s="2" t="s">
-        <v>2372</v>
+      <c r="A1200" t="s">
+        <v>2386</v>
+      </c>
+      <c r="B1200" t="s">
+        <v>2373</v>
       </c>
     </row>
     <row r="1201" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1201" s="2" t="s">
-        <v>2386</v>
-      </c>
-      <c r="B1201" s="2" t="s">
-        <v>2373</v>
+      <c r="A1201" t="s">
+        <v>2387</v>
+      </c>
+      <c r="B1201" t="s">
+        <v>2374</v>
       </c>
     </row>
     <row r="1202" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1202" s="2" t="s">
-        <v>2387</v>
-      </c>
-      <c r="B1202" s="2" t="s">
-        <v>2374</v>
+      <c r="A1202" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B1202" t="s">
+        <v>2375</v>
       </c>
     </row>
     <row r="1203" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1203" s="2" t="s">
-        <v>2388</v>
-      </c>
-      <c r="B1203" s="2" t="s">
-        <v>2375</v>
+      <c r="A1203" t="s">
+        <v>2389</v>
+      </c>
+      <c r="B1203" t="s">
+        <v>2376</v>
       </c>
     </row>
     <row r="1204" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1204" s="2" t="s">
-        <v>2389</v>
-      </c>
-      <c r="B1204" s="2" t="s">
-        <v>2376</v>
+      <c r="A1204" t="s">
+        <v>2390</v>
+      </c>
+      <c r="B1204" t="s">
+        <v>2377</v>
       </c>
     </row>
     <row r="1205" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1205" s="2" t="s">
-        <v>2390</v>
-      </c>
-      <c r="B1205" s="2" t="s">
-        <v>2377</v>
+      <c r="A1205" t="s">
+        <v>2391</v>
+      </c>
+      <c r="B1205" t="s">
+        <v>2378</v>
       </c>
     </row>
     <row r="1206" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1206" s="2" t="s">
-        <v>2391</v>
-      </c>
-      <c r="B1206" s="2" t="s">
-        <v>2378</v>
+      <c r="A1206" t="s">
+        <v>2392</v>
+      </c>
+      <c r="B1206" t="s">
+        <v>2379</v>
       </c>
     </row>
     <row r="1207" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1207" s="2" t="s">
-        <v>2392</v>
-      </c>
-      <c r="B1207" s="2" t="s">
-        <v>2379</v>
+      <c r="A1207" t="s">
+        <v>2393</v>
+      </c>
+      <c r="B1207" t="s">
+        <v>2380</v>
       </c>
     </row>
     <row r="1208" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1208" s="2" t="s">
-        <v>2393</v>
-      </c>
-      <c r="B1208" s="2" t="s">
-        <v>2380</v>
+      <c r="A1208" t="s">
+        <v>2394</v>
+      </c>
+      <c r="B1208" t="s">
+        <v>2381</v>
       </c>
     </row>
     <row r="1209" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1209" s="2" t="s">
-        <v>2394</v>
-      </c>
-      <c r="B1209" s="2" t="s">
-        <v>2381</v>
+      <c r="A1209" t="s">
+        <v>2395</v>
+      </c>
+      <c r="B1209" t="s">
+        <v>2396</v>
       </c>
     </row>
     <row r="1210" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1210" s="2" t="s">
-        <v>2395</v>
-      </c>
-      <c r="B1210" s="2" t="s">
-        <v>2396</v>
-      </c>
-    </row>
-    <row r="1211" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1211" s="2" t="s">
+      <c r="A1210" t="s">
         <v>2397</v>
       </c>
-      <c r="B1211" s="2" t="s">
+      <c r="B1210" t="s">
         <v>2398</v>
       </c>
     </row>

--- a/datapackage_pipelines_budgetkey/pipelines/budget/national/processed/budget_conversions.xlsx
+++ b/datapackage_pipelines_budgetkey/pipelines/budget/national/processed/budget_conversions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/Code/obudget/budgetkey-data-pipelines/datapackage_pipelines_budgetkey/pipelines/budget/national/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393418AA-1DF8-CB4D-A1DC-CEBE3D0D750C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56F021C-1FF6-7148-8F19-1900CAFC1C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2425" uniqueCount="2401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2424" uniqueCount="2400">
   <si>
     <t>Current</t>
   </si>
@@ -7234,9 +7234,6 @@
   </si>
   <si>
     <t>[2022,"00240218"]</t>
-  </si>
-  <si>
-    <t>V</t>
   </si>
 </sst>
 </file>
@@ -7655,8 +7652,8 @@
   <sheetPr codeName="Curated"/>
   <dimension ref="A1:C1210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1160" workbookViewId="0">
-      <selection activeCell="B1203" sqref="B1203"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17013,7 +17010,7 @@
         <v>2330</v>
       </c>
     </row>
-    <row r="1169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1169" t="s">
         <v>2334</v>
       </c>
@@ -17021,7 +17018,7 @@
         <v>2331</v>
       </c>
     </row>
-    <row r="1170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1170" t="s">
         <v>2336</v>
       </c>
@@ -17029,7 +17026,7 @@
         <v>2335</v>
       </c>
     </row>
-    <row r="1171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1171" t="s">
         <v>2337</v>
       </c>
@@ -17037,7 +17034,7 @@
         <v>2353</v>
       </c>
     </row>
-    <row r="1172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1172" t="s">
         <v>2338</v>
       </c>
@@ -17045,7 +17042,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="1173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1173" t="s">
         <v>2339</v>
       </c>
@@ -17053,18 +17050,15 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="1174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1174" t="s">
         <v>2340</v>
       </c>
       <c r="B1174" t="s">
         <v>2356</v>
       </c>
-      <c r="C1174" t="s">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="1175" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1175" t="s">
         <v>2341</v>
       </c>
@@ -17072,7 +17066,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="1176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1176" t="s">
         <v>2342</v>
       </c>
@@ -17080,7 +17074,7 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="1177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1177" t="s">
         <v>2343</v>
       </c>
@@ -17088,7 +17082,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="1178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1178" t="s">
         <v>2344</v>
       </c>
@@ -17096,7 +17090,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="1179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1179" t="s">
         <v>2345</v>
       </c>
@@ -17104,7 +17098,7 @@
         <v>2361</v>
       </c>
     </row>
-    <row r="1180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1180" t="s">
         <v>2346</v>
       </c>
@@ -17112,7 +17106,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="1181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1181" t="s">
         <v>2347</v>
       </c>
@@ -17120,7 +17114,7 @@
         <v>2363</v>
       </c>
     </row>
-    <row r="1182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1182" t="s">
         <v>2348</v>
       </c>
@@ -17128,7 +17122,7 @@
         <v>2364</v>
       </c>
     </row>
-    <row r="1183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1183" t="s">
         <v>2349</v>
       </c>
@@ -17136,7 +17130,7 @@
         <v>2365</v>
       </c>
     </row>
-    <row r="1184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1184" t="s">
         <v>2350</v>
       </c>

--- a/datapackage_pipelines_budgetkey/pipelines/budget/national/processed/budget_conversions.xlsx
+++ b/datapackage_pipelines_budgetkey/pipelines/budget/national/processed/budget_conversions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/Code/obudget/budgetkey-data-pipelines/datapackage_pipelines_budgetkey/pipelines/budget/national/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56F021C-1FF6-7148-8F19-1900CAFC1C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B585C9F3-5F6A-2148-8187-C52F7E53DAA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7653,7 +7653,7 @@
   <dimension ref="A1:C1210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:H1048576"/>
+      <selection activeCell="C1" sqref="C1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/datapackage_pipelines_budgetkey/pipelines/budget/national/processed/budget_conversions.xlsx
+++ b/datapackage_pipelines_budgetkey/pipelines/budget/national/processed/budget_conversions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/Code/obudget/budgetkey-data-pipelines/datapackage_pipelines_budgetkey/pipelines/budget/national/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350BB5DB-8E1C-DA4D-B69B-BB18C024C553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD103D8A-C5A6-2F40-B9D4-83234C44EF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2428" uniqueCount="2404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2436" uniqueCount="2412">
   <si>
     <t>Current</t>
   </si>
@@ -7246,6 +7246,30 @@
   </si>
   <si>
     <t>[2022, "0024021817"]</t>
+  </si>
+  <si>
+    <t>[2022,"0024021821"]</t>
+  </si>
+  <si>
+    <t>[[2021,"0024027004"]]</t>
+  </si>
+  <si>
+    <t>[2022,"0024021822"]</t>
+  </si>
+  <si>
+    <t>[[2021,"0024027007"]]</t>
+  </si>
+  <si>
+    <t>[2022,"0024021823"]</t>
+  </si>
+  <si>
+    <t>[[2021,"0024027008"]]</t>
+  </si>
+  <si>
+    <t>[2022,"0024021824"]</t>
+  </si>
+  <si>
+    <t>[[2021,"0024027060"]]</t>
   </si>
 </sst>
 </file>
@@ -7676,10 +7700,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Curated"/>
-  <dimension ref="A1:C1212"/>
+  <dimension ref="A1:C1216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1148" workbookViewId="0">
-      <selection activeCell="A1162" sqref="A1162"/>
+    <sheetView tabSelected="1" topLeftCell="A1165" workbookViewId="0">
+      <selection activeCell="A1217" sqref="A1217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -17389,6 +17413,38 @@
         <v>2398</v>
       </c>
     </row>
+    <row r="1213" spans="1:2">
+      <c r="A1213" t="s">
+        <v>2404</v>
+      </c>
+      <c r="B1213" t="s">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:2">
+      <c r="A1214" t="s">
+        <v>2406</v>
+      </c>
+      <c r="B1214" t="s">
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:2">
+      <c r="A1215" t="s">
+        <v>2408</v>
+      </c>
+      <c r="B1215" t="s">
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:2">
+      <c r="A1216" t="s">
+        <v>2410</v>
+      </c>
+      <c r="B1216" t="s">
+        <v>2411</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/datapackage_pipelines_budgetkey/pipelines/budget/national/processed/budget_conversions.xlsx
+++ b/datapackage_pipelines_budgetkey/pipelines/budget/national/processed/budget_conversions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/Code/obudget/budgetkey-data-pipelines/datapackage_pipelines_budgetkey/pipelines/budget/national/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD103D8A-C5A6-2F40-B9D4-83234C44EF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09ED6CD1-5D46-C240-8AC8-8454698156C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2436" uniqueCount="2412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2448" uniqueCount="2424">
   <si>
     <t>Current</t>
   </si>
@@ -6981,12 +6981,6 @@
     <t>[[2021,"00240218"],[2021,"00240262"],[2021,"00240270"]]</t>
   </si>
   <si>
-    <t>[2022,"00240701"]</t>
-  </si>
-  <si>
-    <t>[[2021,"002404"]]</t>
-  </si>
-  <si>
     <t>[[2021,"0024070301"]]</t>
   </si>
   <si>
@@ -7128,9 +7122,6 @@
     <t>[[2021,"0024042030"]]</t>
   </si>
   <si>
-    <t>[[2021,"0024042031"]]</t>
-  </si>
-  <si>
     <t>[[2021,"0024042032"]]</t>
   </si>
   <si>
@@ -7270,6 +7261,51 @@
   </si>
   <si>
     <t>[[2021,"0024027060"]]</t>
+  </si>
+  <si>
+    <t>[2022,"0024070130"]</t>
+  </si>
+  <si>
+    <t>[[2021,"0024048021"]]</t>
+  </si>
+  <si>
+    <t>[2022,"0024070131"]</t>
+  </si>
+  <si>
+    <t>[[2021,"0024048020"]]</t>
+  </si>
+  <si>
+    <t>[2023,"0006220131"]</t>
+  </si>
+  <si>
+    <t>[[2022, "0006220202"]]</t>
+  </si>
+  <si>
+    <t>[2023,"0006220132"]</t>
+  </si>
+  <si>
+    <t>[[2022, "0006220205"]]</t>
+  </si>
+  <si>
+    <t>[2023,"0006220133"]</t>
+  </si>
+  <si>
+    <t>[[2022, "0006220207"]]</t>
+  </si>
+  <si>
+    <t>[2023,"0006220134"]</t>
+  </si>
+  <si>
+    <t>[[2022, "0006220208"]]</t>
+  </si>
+  <si>
+    <t>[2023,"0006220135"]</t>
+  </si>
+  <si>
+    <t>[[2022, "0006220209"]]</t>
+  </si>
+  <si>
+    <t>[[2021,"0024042031"],[2021,"0024042022"]]</t>
   </si>
 </sst>
 </file>
@@ -7700,10 +7736,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Curated"/>
-  <dimension ref="A1:C1216"/>
+  <dimension ref="A1:C1222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1165" workbookViewId="0">
-      <selection activeCell="A1217" sqref="A1217"/>
+    <sheetView tabSelected="1" topLeftCell="A1190" workbookViewId="0">
+      <selection activeCell="B1216" sqref="A1216:B1217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -16982,7 +17018,7 @@
     </row>
     <row r="1159" spans="1:3">
       <c r="A1159" t="s">
-        <v>2399</v>
+        <v>2396</v>
       </c>
       <c r="B1159" t="s">
         <v>2314</v>
@@ -16990,91 +17026,91 @@
     </row>
     <row r="1160" spans="1:3">
       <c r="A1160" t="s">
-        <v>2400</v>
+        <v>2397</v>
       </c>
       <c r="B1160" t="s">
-        <v>2401</v>
+        <v>2398</v>
       </c>
       <c r="C1160" s="2"/>
     </row>
     <row r="1161" spans="1:3">
       <c r="A1161" t="s">
-        <v>2403</v>
+        <v>2400</v>
       </c>
       <c r="B1161" t="s">
-        <v>2402</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="1162" spans="1:3">
       <c r="A1162" t="s">
+        <v>2316</v>
+      </c>
+      <c r="B1162" t="s">
         <v>2315</v>
-      </c>
-      <c r="B1162" t="s">
-        <v>2316</v>
       </c>
     </row>
     <row r="1163" spans="1:3">
       <c r="A1163" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="B1163" t="s">
-        <v>2317</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="1164" spans="1:3">
       <c r="A1164" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="B1164" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="1165" spans="1:3">
       <c r="A1165" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="B1165" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="1166" spans="1:3">
       <c r="A1166" t="s">
-        <v>2321</v>
+        <v>2325</v>
       </c>
       <c r="B1166" t="s">
-        <v>2325</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="1167" spans="1:3">
       <c r="A1167" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="B1167" t="s">
-        <v>2322</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="1168" spans="1:3">
       <c r="A1168" t="s">
-        <v>2328</v>
+        <v>2330</v>
       </c>
       <c r="B1168" t="s">
-        <v>2326</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
       <c r="A1169" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="B1169" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="1170" spans="1:2">
       <c r="A1170" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="B1170" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="1171" spans="1:2">
@@ -17082,367 +17118,415 @@
         <v>2334</v>
       </c>
       <c r="B1171" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="1172" spans="1:2">
       <c r="A1172" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="B1172" t="s">
-        <v>2335</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1173" spans="1:2">
       <c r="A1173" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="B1173" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1174" spans="1:2">
       <c r="A1174" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="B1174" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="1175" spans="1:2">
       <c r="A1175" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="B1175" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="1176" spans="1:2">
       <c r="A1176" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="B1176" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="1177" spans="1:2">
       <c r="A1177" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="B1177" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="1178" spans="1:2">
       <c r="A1178" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="B1178" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="1179" spans="1:2">
       <c r="A1179" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="B1179" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="1180" spans="1:2">
       <c r="A1180" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="B1180" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="1181" spans="1:2">
       <c r="A1181" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="B1181" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="1182" spans="1:2">
       <c r="A1182" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="B1182" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="1183" spans="1:2">
       <c r="A1183" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="B1183" t="s">
-        <v>2363</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="1184" spans="1:2">
       <c r="A1184" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="B1184" t="s">
-        <v>2364</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="1185" spans="1:2">
       <c r="A1185" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="B1185" t="s">
-        <v>2365</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="1186" spans="1:2">
       <c r="A1186" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="B1186" t="s">
-        <v>2366</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="1187" spans="1:2">
       <c r="A1187" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="B1187" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="1188" spans="1:2">
       <c r="A1188" t="s">
-        <v>2352</v>
+        <v>2316</v>
       </c>
       <c r="B1188" t="s">
-        <v>2368</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="1189" spans="1:2">
       <c r="A1189" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="B1189" t="s">
-        <v>2317</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="1190" spans="1:2">
       <c r="A1190" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="B1190" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="1191" spans="1:2">
       <c r="A1191" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="B1191" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="1192" spans="1:2">
       <c r="A1192" t="s">
-        <v>2321</v>
+        <v>2325</v>
       </c>
       <c r="B1192" t="s">
-        <v>2325</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="1193" spans="1:2">
       <c r="A1193" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="B1193" t="s">
-        <v>2322</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="1194" spans="1:2">
       <c r="A1194" t="s">
-        <v>2328</v>
+        <v>2330</v>
       </c>
       <c r="B1194" t="s">
-        <v>2326</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="1195" spans="1:2">
       <c r="A1195" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="B1195" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="1196" spans="1:2">
       <c r="A1196" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="B1196" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="1197" spans="1:2">
       <c r="A1197" t="s">
-        <v>2334</v>
+        <v>2379</v>
       </c>
       <c r="B1197" t="s">
-        <v>2331</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="1198" spans="1:2">
       <c r="A1198" t="s">
-        <v>2382</v>
+        <v>2380</v>
       </c>
       <c r="B1198" t="s">
-        <v>2369</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="1199" spans="1:2">
       <c r="A1199" t="s">
-        <v>2383</v>
+        <v>2381</v>
       </c>
       <c r="B1199" t="s">
-        <v>2370</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="1200" spans="1:2">
       <c r="A1200" t="s">
-        <v>2384</v>
+        <v>2382</v>
       </c>
       <c r="B1200" t="s">
-        <v>2371</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="1201" spans="1:2">
       <c r="A1201" t="s">
-        <v>2385</v>
+        <v>2383</v>
       </c>
       <c r="B1201" t="s">
-        <v>2372</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="1202" spans="1:2">
       <c r="A1202" t="s">
-        <v>2386</v>
+        <v>2384</v>
       </c>
       <c r="B1202" t="s">
-        <v>2373</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="1203" spans="1:2">
       <c r="A1203" t="s">
-        <v>2387</v>
+        <v>2385</v>
       </c>
       <c r="B1203" t="s">
-        <v>2374</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="1204" spans="1:2">
       <c r="A1204" t="s">
-        <v>2388</v>
+        <v>2386</v>
       </c>
       <c r="B1204" t="s">
-        <v>2375</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="1205" spans="1:2">
       <c r="A1205" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
       <c r="B1205" t="s">
-        <v>2376</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="1206" spans="1:2">
       <c r="A1206" t="s">
-        <v>2390</v>
+        <v>2388</v>
       </c>
       <c r="B1206" t="s">
-        <v>2377</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="1207" spans="1:2">
       <c r="A1207" t="s">
-        <v>2391</v>
+        <v>2389</v>
       </c>
       <c r="B1207" t="s">
-        <v>2378</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="1208" spans="1:2">
       <c r="A1208" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="B1208" t="s">
-        <v>2379</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="1209" spans="1:2">
       <c r="A1209" t="s">
-        <v>2393</v>
+        <v>2391</v>
       </c>
       <c r="B1209" t="s">
-        <v>2380</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="1210" spans="1:2">
       <c r="A1210" t="s">
-        <v>2394</v>
+        <v>2392</v>
       </c>
       <c r="B1210" t="s">
-        <v>2381</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="1211" spans="1:2">
       <c r="A1211" t="s">
+        <v>2394</v>
+      </c>
+      <c r="B1211" t="s">
         <v>2395</v>
-      </c>
-      <c r="B1211" t="s">
-        <v>2396</v>
       </c>
     </row>
     <row r="1212" spans="1:2">
       <c r="A1212" t="s">
-        <v>2397</v>
+        <v>2401</v>
       </c>
       <c r="B1212" t="s">
-        <v>2398</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="1213" spans="1:2">
       <c r="A1213" t="s">
+        <v>2403</v>
+      </c>
+      <c r="B1213" t="s">
         <v>2404</v>
-      </c>
-      <c r="B1213" t="s">
-        <v>2405</v>
       </c>
     </row>
     <row r="1214" spans="1:2">
       <c r="A1214" t="s">
+        <v>2405</v>
+      </c>
+      <c r="B1214" t="s">
         <v>2406</v>
-      </c>
-      <c r="B1214" t="s">
-        <v>2407</v>
       </c>
     </row>
     <row r="1215" spans="1:2">
       <c r="A1215" t="s">
+        <v>2407</v>
+      </c>
+      <c r="B1215" t="s">
         <v>2408</v>
       </c>
-      <c r="B1215" t="s">
+    </row>
+    <row r="1216" spans="1:2" ht="15" customHeight="1">
+      <c r="A1216" t="s">
         <v>2409</v>
       </c>
-    </row>
-    <row r="1216" spans="1:2">
-      <c r="A1216" t="s">
+      <c r="B1216" t="s">
         <v>2410</v>
       </c>
-      <c r="B1216" t="s">
+    </row>
+    <row r="1217" spans="1:2">
+      <c r="A1217" t="s">
         <v>2411</v>
+      </c>
+      <c r="B1217" t="s">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:2">
+      <c r="A1218" t="s">
+        <v>2413</v>
+      </c>
+      <c r="B1218" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:2">
+      <c r="A1219" t="s">
+        <v>2415</v>
+      </c>
+      <c r="B1219" t="s">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:2">
+      <c r="A1220" t="s">
+        <v>2417</v>
+      </c>
+      <c r="B1220" t="s">
+        <v>2418</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:2">
+      <c r="A1221" t="s">
+        <v>2419</v>
+      </c>
+      <c r="B1221" t="s">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:2">
+      <c r="A1222" t="s">
+        <v>2421</v>
+      </c>
+      <c r="B1222" t="s">
+        <v>2422</v>
       </c>
     </row>
   </sheetData>

--- a/datapackage_pipelines_budgetkey/pipelines/budget/national/processed/budget_conversions.xlsx
+++ b/datapackage_pipelines_budgetkey/pipelines/budget/national/processed/budget_conversions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/Code/obudget/budgetkey-data-pipelines/datapackage_pipelines_budgetkey/pipelines/budget/national/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09ED6CD1-5D46-C240-8AC8-8454698156C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49EE56E8-BFFE-F944-AE9B-BDC846606D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2448" uniqueCount="2424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2450" uniqueCount="2426">
   <si>
     <t>Current</t>
   </si>
@@ -7306,6 +7306,12 @@
   </si>
   <si>
     <t>[[2021,"0024042031"],[2021,"0024042022"]]</t>
+  </si>
+  <si>
+    <t>[2023,"0060021067"]</t>
+  </si>
+  <si>
+    <t>[[2022,"0060060102"]]</t>
   </si>
 </sst>
 </file>
@@ -7736,10 +7742,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Curated"/>
-  <dimension ref="A1:C1222"/>
+  <dimension ref="A1:C1223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1190" workbookViewId="0">
-      <selection activeCell="B1216" sqref="A1216:B1217"/>
+    <sheetView tabSelected="1" topLeftCell="A1191" workbookViewId="0">
+      <selection activeCell="B1201" sqref="B1201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -17355,177 +17361,185 @@
     </row>
     <row r="1201" spans="1:2">
       <c r="A1201" t="s">
-        <v>2383</v>
+        <v>2424</v>
       </c>
       <c r="B1201" t="s">
-        <v>2370</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="1202" spans="1:2">
       <c r="A1202" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="B1202" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="1203" spans="1:2">
       <c r="A1203" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="B1203" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="1204" spans="1:2">
       <c r="A1204" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="B1204" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="1205" spans="1:2">
       <c r="A1205" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="B1205" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="1206" spans="1:2">
       <c r="A1206" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="B1206" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="1207" spans="1:2">
       <c r="A1207" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="B1207" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="1208" spans="1:2">
       <c r="A1208" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="B1208" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="1209" spans="1:2">
       <c r="A1209" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="B1209" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="1210" spans="1:2">
       <c r="A1210" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="B1210" t="s">
-        <v>2393</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="1211" spans="1:2">
       <c r="A1211" t="s">
-        <v>2394</v>
+        <v>2392</v>
       </c>
       <c r="B1211" t="s">
-        <v>2395</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="1212" spans="1:2">
       <c r="A1212" t="s">
-        <v>2401</v>
+        <v>2394</v>
       </c>
       <c r="B1212" t="s">
-        <v>2402</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="1213" spans="1:2">
       <c r="A1213" t="s">
-        <v>2403</v>
+        <v>2401</v>
       </c>
       <c r="B1213" t="s">
-        <v>2404</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="1214" spans="1:2">
       <c r="A1214" t="s">
-        <v>2405</v>
+        <v>2403</v>
       </c>
       <c r="B1214" t="s">
-        <v>2406</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="1215" spans="1:2">
       <c r="A1215" t="s">
+        <v>2405</v>
+      </c>
+      <c r="B1215" t="s">
+        <v>2406</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:2">
+      <c r="A1216" t="s">
         <v>2407</v>
       </c>
-      <c r="B1215" t="s">
+      <c r="B1216" t="s">
         <v>2408</v>
       </c>
     </row>
-    <row r="1216" spans="1:2" ht="15" customHeight="1">
-      <c r="A1216" t="s">
+    <row r="1217" spans="1:2" ht="15" customHeight="1">
+      <c r="A1217" t="s">
         <v>2409</v>
       </c>
-      <c r="B1216" t="s">
+      <c r="B1217" t="s">
         <v>2410</v>
-      </c>
-    </row>
-    <row r="1217" spans="1:2">
-      <c r="A1217" t="s">
-        <v>2411</v>
-      </c>
-      <c r="B1217" t="s">
-        <v>2412</v>
       </c>
     </row>
     <row r="1218" spans="1:2">
       <c r="A1218" t="s">
-        <v>2413</v>
+        <v>2411</v>
       </c>
       <c r="B1218" t="s">
-        <v>2414</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="1219" spans="1:2">
       <c r="A1219" t="s">
-        <v>2415</v>
+        <v>2413</v>
       </c>
       <c r="B1219" t="s">
-        <v>2416</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="1220" spans="1:2">
       <c r="A1220" t="s">
-        <v>2417</v>
+        <v>2415</v>
       </c>
       <c r="B1220" t="s">
-        <v>2418</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="1221" spans="1:2">
       <c r="A1221" t="s">
-        <v>2419</v>
+        <v>2417</v>
       </c>
       <c r="B1221" t="s">
-        <v>2420</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="1222" spans="1:2">
       <c r="A1222" t="s">
+        <v>2419</v>
+      </c>
+      <c r="B1222" t="s">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:2">
+      <c r="A1223" t="s">
         <v>2421</v>
       </c>
-      <c r="B1222" t="s">
+      <c r="B1223" t="s">
         <v>2422</v>
       </c>
     </row>

--- a/datapackage_pipelines_budgetkey/pipelines/budget/national/processed/budget_conversions.xlsx
+++ b/datapackage_pipelines_budgetkey/pipelines/budget/national/processed/budget_conversions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/Code/obudget/budgetkey-data-pipelines/datapackage_pipelines_budgetkey/pipelines/budget/national/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49EE56E8-BFFE-F944-AE9B-BDC846606D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6458BB7-B773-BF44-B300-D09866D644CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2450" uniqueCount="2426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2452" uniqueCount="2428">
   <si>
     <t>Current</t>
   </si>
@@ -7312,6 +7312,12 @@
   </si>
   <si>
     <t>[[2022,"0060060102"]]</t>
+  </si>
+  <si>
+    <t>[2022,"0060021070"]</t>
+  </si>
+  <si>
+    <t>[[2021,"0060060114"]]</t>
   </si>
 </sst>
 </file>
@@ -7742,10 +7748,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Curated"/>
-  <dimension ref="A1:C1223"/>
+  <dimension ref="A1:C1224"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1191" workbookViewId="0">
-      <selection activeCell="B1201" sqref="B1201"/>
+      <selection activeCell="B1220" sqref="B1220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -17543,6 +17549,14 @@
         <v>2422</v>
       </c>
     </row>
+    <row r="1224" spans="1:2">
+      <c r="A1224" t="s">
+        <v>2426</v>
+      </c>
+      <c r="B1224" t="s">
+        <v>2427</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
